--- a/shopizer_homepage_manual_testCases_aditya_dhaygude.xlsx
+++ b/shopizer_homepage_manual_testCases_aditya_dhaygude.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\Mini project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shopizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B208001-5879-4789-956C-5AF4F3EEA788}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F315CA19-1DDE-40A0-9342-B7A2F7277894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="253" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="131">
   <si>
     <t>Sc_id</t>
   </si>
@@ -307,21 +307,12 @@
     <t>SC_04 TC_04</t>
   </si>
   <si>
-    <t>Check Page button link is broken or not</t>
-  </si>
-  <si>
     <t>Click on the Page button</t>
   </si>
   <si>
-    <t>User must be redirected to Page page</t>
-  </si>
-  <si>
     <t xml:space="preserve">User did not redirected to </t>
   </si>
   <si>
-    <t>Page page</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -419,6 +410,24 @@
   </si>
   <si>
     <t>User must be logged out and redirected to home page of the shopizer</t>
+  </si>
+  <si>
+    <t>Automate</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Check Page button link is working</t>
+  </si>
+  <si>
+    <t>Page.html</t>
+  </si>
+  <si>
+    <t>User must be redirected to Page.html</t>
   </si>
 </sst>
 </file>
@@ -966,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1294,204 +1303,213 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:J56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="59.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="60.08984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="1"/>
-    <col min="10" max="10" width="13.26953125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="12.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="59.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.08984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1"/>
+    <col min="11" max="11" width="13.26953125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:15" ht="14.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="18">
+      <c r="E2" s="18">
         <v>1</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="F2" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="33"/>
-    </row>
-    <row r="3" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
+      <c r="K2" s="33"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.5" customHeight="1">
+      <c r="B3" s="34"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="20">
+      <c r="E3" s="20">
         <v>2</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="F3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="34"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="9" t="s">
+      <c r="J3" s="20"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="34"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="35"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="16"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="35"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="36"/>
-    </row>
-    <row r="6" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A6" s="32" t="s">
+      <c r="J5" s="16"/>
+      <c r="K5" s="36"/>
+    </row>
+    <row r="6" spans="1:15" ht="14.5" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="D6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="18">
+      <c r="E6" s="18">
         <v>1</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="F6" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="H6" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="I6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="J6" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="33"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="34"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="11" t="s">
+      <c r="K6" s="33"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" s="34"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="34"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="9" t="s">
+      <c r="J7" s="20"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" s="34"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="20">
+      <c r="E8" s="20">
         <v>2</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="F8" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="20"/>
+      <c r="H8" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="I8" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="J8" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="34"/>
-      <c r="B9" s="20"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" s="34"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
@@ -1499,35 +1517,35 @@
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" ht="14.5" customHeight="1">
+      <c r="B10" s="34"/>
       <c r="C10" s="20"/>
-      <c r="D10" s="20">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20">
         <v>3</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="F10" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="20"/>
+      <c r="H10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="I10" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="J10" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="34"/>
-      <c r="B11" s="20"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" s="34"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1535,69 +1553,70 @@
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="34"/>
-      <c r="B12" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="34"/>
       <c r="C12" s="20"/>
-      <c r="D12" s="20">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20">
         <v>4</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="F12" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="I12" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="J12" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="20"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" ht="14.5" customHeight="1">
+      <c r="B13" s="34"/>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="20"/>
       <c r="I13" s="20"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="35"/>
-      <c r="B14" s="16"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="35"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="39"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="39"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="32" t="s">
+      <c r="I14" s="39"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="36"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="C15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="D15" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>50</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>50</v>
@@ -1606,61 +1625,63 @@
         <v>50</v>
       </c>
       <c r="G15" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="I15" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="J15" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="33"/>
-      <c r="K15" s="20"/>
+      <c r="K15" s="33"/>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="34"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="11" t="s">
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="34"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="20"/>
       <c r="I16" s="20"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="34"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="9" t="s">
+      <c r="O16" s="20"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="B17" s="34"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="38"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="38"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="20"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="13"/>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="35"/>
-      <c r="B18" s="16"/>
+      <c r="O17" s="20"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="B18" s="35"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -1668,241 +1689,250 @@
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="20"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
       <c r="N18" s="20"/>
-    </row>
-    <row r="19" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A19" s="32" t="s">
+      <c r="O18" s="20"/>
+    </row>
+    <row r="19" spans="1:15" ht="14.5" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="D19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="18">
+      <c r="E19" s="18">
         <v>1</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="F19" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="G19" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="H19" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="I19" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="J19" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="J19" s="33"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="34"/>
-      <c r="B20" s="20" t="s">
+      <c r="K19" s="33"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="B20" s="34"/>
+      <c r="C20" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="20">
+      <c r="E20" s="20">
         <v>2</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="F20" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="34"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="9" t="s">
+      <c r="J20" s="20"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="B21" s="34"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="35"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="16"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="B22" s="35"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="36"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="32" t="s">
+      <c r="J22" s="16"/>
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="D23" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="18">
+      <c r="E23" s="18">
         <v>1</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="F23" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="G23" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="H23" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="I23" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="J23" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="33"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="34"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="11" t="s">
+      <c r="K23" s="33"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="B24" s="34"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
-      <c r="J24" s="13"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="34"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="9" t="s">
+      <c r="J24" s="20"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="B25" s="34"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="20">
+      <c r="E25" s="20">
         <v>2</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="F25" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="20"/>
+      <c r="H25" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="I25" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="J25" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J25" s="13"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="35"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="16"/>
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="B26" s="35"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="32" t="s">
+      <c r="J26" s="16"/>
+      <c r="K26" s="36"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="D27" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="18">
+      <c r="E27" s="18">
         <v>1</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="F27" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="G27" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
-      <c r="J27" s="33"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="34"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="11" t="s">
+      <c r="J27" s="18"/>
+      <c r="K27" s="33"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="B28" s="34"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="20">
+      <c r="E28" s="20">
         <v>2</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="F28" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="20"/>
+      <c r="H28" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="I28" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I28" s="20" t="s">
+      <c r="J28" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J28" s="13"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="34"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="9" t="s">
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="B29" s="34"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="20"/>
+      <c r="F29" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="20"/>
+      <c r="H29" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="I29" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I29" s="20" t="s">
+      <c r="J29" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J29" s="13"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="35"/>
-      <c r="B30" s="16"/>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="B30" s="35"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
@@ -1910,73 +1940,76 @@
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
-      <c r="J30" s="36"/>
-    </row>
-    <row r="31" spans="1:14" ht="14.5" customHeight="1">
-      <c r="A31" s="32" t="s">
+      <c r="J30" s="16"/>
+      <c r="K30" s="36"/>
+    </row>
+    <row r="31" spans="1:15" ht="14.5" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="C31" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="18">
+        <v>1</v>
+      </c>
+      <c r="F31" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="18">
-        <v>1</v>
-      </c>
-      <c r="E31" s="18" t="s">
+      <c r="G31" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F31" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="18" t="s">
+      <c r="J31" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="K31" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="I31" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="J31" s="33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="34"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="11" t="s">
+    </row>
+    <row r="32" spans="1:15">
+      <c r="B32" s="34"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
-      <c r="H32" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="I32" s="20"/>
-      <c r="J32" s="13"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="34"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="9" t="s">
+      <c r="H32" s="20"/>
+      <c r="I32" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J32" s="20"/>
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="B33" s="34"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="20"/>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
-      <c r="J33" s="13"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="34"/>
-      <c r="B34" s="16"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="13"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="B34" s="34"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -1984,73 +2017,76 @@
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
-      <c r="J34" s="36"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="32" t="s">
+      <c r="J34" s="16"/>
+      <c r="K34" s="36"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="18">
+        <v>1</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="18">
-        <v>1</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G35" s="18" t="s">
+      <c r="I35" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K35" s="33"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="B36" s="34"/>
+      <c r="C36" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="H35" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="J35" s="33"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="34"/>
-      <c r="B36" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="11" t="s">
+      <c r="D36" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="20"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="H36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="I36" s="20"/>
-      <c r="J36" s="13"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="34"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="9" t="s">
+      <c r="J36" s="20"/>
+      <c r="K36" s="13"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="B37" s="34"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="20"/>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
-      <c r="J37" s="13"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="34"/>
-      <c r="B38" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="13"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="B38" s="34"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
@@ -2058,215 +2094,221 @@
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
-      <c r="J38" s="13"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="32" t="s">
+      <c r="J38" s="20"/>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="19" t="s">
+      <c r="D39" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="18">
+      <c r="E39" s="18">
         <v>1</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="F39" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F39" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G39" s="18" t="s">
+      <c r="I39" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K39" s="33"/>
+    </row>
+    <row r="40" spans="1:11" ht="14.5" customHeight="1">
+      <c r="B40" s="34"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="20">
+        <v>2</v>
+      </c>
+      <c r="F40" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="H39" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="J39" s="33"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A40" s="34"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="20">
-        <v>2</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="H40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="I40" s="20"/>
-      <c r="J40" s="13"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="34"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="9" t="s">
+      <c r="J40" s="20"/>
+      <c r="K40" s="13"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="B41" s="34"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="20"/>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
-      <c r="J41" s="13"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="34"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="13"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="B42" s="34"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
-      <c r="J42" s="13"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="34"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="13"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="B43" s="34"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
-      <c r="J43" s="13"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="35"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="16"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="13"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="B44" s="35"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
-      <c r="J44" s="36"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="32" t="s">
+      <c r="J44" s="16"/>
+      <c r="K44" s="36"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="18">
+        <v>1</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="18">
-        <v>1</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G45" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="H45" s="18" t="s">
+      <c r="I45" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I45" s="18" t="s">
+      <c r="J45" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="J45" s="33"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="34"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="11" t="s">
+      <c r="K45" s="33"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="B46" s="34"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="20">
+      <c r="E46" s="20">
         <v>2</v>
       </c>
-      <c r="E46" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="F46" s="20"/>
+      <c r="F46" s="20" t="s">
+        <v>103</v>
+      </c>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
-      <c r="J46" s="13"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="34"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="9" t="s">
+      <c r="J46" s="20"/>
+      <c r="K46" s="13"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="B47" s="34"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="20"/>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
-      <c r="G47" s="20" t="s">
+      <c r="G47" s="20"/>
+      <c r="H47" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I47" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="H47" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="I47" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="J47" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="34"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="20"/>
+      <c r="J47" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="B48" s="34"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
-      <c r="H48" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="I48" s="20"/>
-      <c r="J48" s="13"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="34"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="J48" s="20"/>
+      <c r="K48" s="13"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="B49" s="34"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
       <c r="I49" s="20"/>
-      <c r="J49" s="13"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="35"/>
-      <c r="B50" s="16"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="B50" s="35"/>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
@@ -2274,103 +2316,106 @@
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
       <c r="I50" s="16"/>
-      <c r="J50" s="36"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51" s="19" t="s">
+      <c r="J50" s="16"/>
+      <c r="K50" s="36"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="18">
+      <c r="E51" s="18">
         <v>1</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="F51" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H51" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F51" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H51" s="18" t="s">
+      <c r="I51" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I51" s="18" t="s">
+      <c r="J51" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="J51" s="33"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="34"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="11" t="s">
+      <c r="K51" s="33"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="B52" s="34"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="F52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
-      <c r="J52" s="13"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="34"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D53" s="20">
+      <c r="J52" s="20"/>
+      <c r="K52" s="13"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="B53" s="34"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" s="20">
         <v>2</v>
       </c>
-      <c r="E53" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="F53" s="20"/>
+      <c r="F53" s="20" t="s">
+        <v>123</v>
+      </c>
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
-      <c r="J53" s="13"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="34"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D54" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="13"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="B54" s="34"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
-      <c r="J54" s="13"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="34"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D55" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="13"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="B55" s="34"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
-      <c r="J55" s="13"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="35"/>
-      <c r="B56" s="16"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="13"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="B56" s="35"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
@@ -2378,7 +2423,8 @@
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
       <c r="I56" s="16"/>
-      <c r="J56" s="36"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2387,6 +2433,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F479031524BD0A489864D0790F8F232E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8b0b243d92764e758821263f6cc1b20">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="94c59a43-8224-48f6-b059-615a8d0ba7bc" xmlns:ns3="17ab3be3-c4ba-4bd9-a5fd-be94a15a3899" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e518f1fda792bf721e099c9fc09e586a" ns2:_="" ns3:_="">
     <xsd:import namespace="94c59a43-8224-48f6-b059-615a8d0ba7bc"/>
@@ -2597,12 +2649,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2613,6 +2659,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC9FDFB-29C9-4D71-A78D-DC63A8164647}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6068D9AD-E58B-4B9E-A1E5-8ABF5859AA47}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2631,15 +2686,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC9FDFB-29C9-4D71-A78D-DC63A8164647}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1CA316B-A5FF-4AE2-9421-20955EA2F4E1}">
   <ds:schemaRefs>

--- a/shopizer_homepage_manual_testCases_aditya_dhaygude.xlsx
+++ b/shopizer_homepage_manual_testCases_aditya_dhaygude.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\Mini project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\Mini project\git track\Shopizer\Shopizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B208001-5879-4789-956C-5AF4F3EEA788}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C246066-6898-4B36-8FD9-2092956E1194}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="253" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="130">
   <si>
     <t>Sc_id</t>
   </si>
@@ -419,6 +419,12 @@
   </si>
   <si>
     <t>User must be logged out and redirected to home page of the shopizer</t>
+  </si>
+  <si>
+    <t>Automable</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -966,7 +972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D24" sqref="D24:D28"/>
     </sheetView>
   </sheetViews>
@@ -1296,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:J56"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -1312,7 +1318,8 @@
     <col min="8" max="8" width="25" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.1796875" style="1"/>
     <col min="10" max="10" width="13.26953125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1"/>
+    <col min="11" max="11" width="21.36328125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" ht="24.75" customHeight="1">
@@ -1346,6 +1353,9 @@
       <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="2" spans="1:14" ht="14.5" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -1376,6 +1386,9 @@
         <v>53</v>
       </c>
       <c r="J2" s="33"/>
+      <c r="K2" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="14.5" customHeight="1">
       <c r="A3" s="34"/>
@@ -2387,6 +2400,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F479031524BD0A489864D0790F8F232E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8b0b243d92764e758821263f6cc1b20">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="94c59a43-8224-48f6-b059-615a8d0ba7bc" xmlns:ns3="17ab3be3-c4ba-4bd9-a5fd-be94a15a3899" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e518f1fda792bf721e099c9fc09e586a" ns2:_="" ns3:_="">
     <xsd:import namespace="94c59a43-8224-48f6-b059-615a8d0ba7bc"/>
@@ -2597,22 +2625,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1CA316B-A5FF-4AE2-9421-20955EA2F4E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC9FDFB-29C9-4D71-A78D-DC63A8164647}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6068D9AD-E58B-4B9E-A1E5-8ABF5859AA47}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2629,21 +2659,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC9FDFB-29C9-4D71-A78D-DC63A8164647}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1CA316B-A5FF-4AE2-9421-20955EA2F4E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>